--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_295.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_295.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,676 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.421195652173913</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1833333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>[['C/5', 'F/3', 'G/3'], ['C/3', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(18.66, 21.84)]</t>
+          <t>[['C', 'F', 'G'], ['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(237.58, 253.72)]</t>
+          <t>[('0:02:15.371234', '0:02:16.905420'), ('0:01:16.585782', '0:01:18.064810')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:11.248049', '0:00:33.724965'), ('0:01:10.203514', '0:01:27.246961')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1806020066889632</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(240.86, 253.72)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(235.32, 239.98)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:02:20.480000', '0:02:25.980000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:03', '0:00:05.280000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2176470588235294</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['B', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(251.5, 255.38)]</t>
+          <t>[['D', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(72.82, 80.0)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:08.291354', '0:00:14.073123')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:44.983424', '0:00:55.304693')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.10801393728223</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>jaah_64</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_84</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05220944309927361</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F'], ['F', 'F:7', 'Bb']]</t>
+          <t>[['D:min7', 'G:7', 'C:maj7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(75.58, 86.06), (19.5, 30.32)]</t>
+          <t>[['Eb:min7', 'Ab:7', 'Db:maj7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(49.61, 55.16), (29.47, 32.22)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:07.660000', '0:00:11.020000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:22.170000', '0:00:27.620000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07542426147077311</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.284457, 20.438561)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(28.921995, 33.101587)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:40.820000', '0:00:43.620000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(143.58, 148.16)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:03.880000', '0:01:14.940000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:02.460000', '0:00:17.160000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.26, 23.34), (61.44, 85.44)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.16, 19.2), (49.08, 68.32)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(65.2, 67.5)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:40.240000', '0:01:42.380000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(24.18, 30.02), (250.3, 255.38)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38), (18.48, 21.42)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5444444444444444</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(18.42, 24.34)]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:43.520929', '0:01:49.476848')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.02, 15.1)]</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(12.094553, 24.840113)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.72, 14.06)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:55.580000', '0:01:06.200000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.3, 14.36)]</t>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(11.96, 16.4)]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.08, 29.9)]</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(60.12, 61.36), (58.4, 60.68)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(43.34, 59.34), (118.44, 121.68)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_214</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.82, 20.52), (55.14, 75.9)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.62, 26.6), (70.16, 96.1)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
